--- a/figure/experiment/图表.xlsx
+++ b/figure/experiment/图表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A4EE9A-A41C-4E92-AAB3-13176AD50459}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD3A065-39BD-4268-B802-DD596B7058A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -235,7 +235,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>隐层维度为32时的训练效率</c:v>
+            <c:v>隐层维度为32时的训练速度</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -299,7 +299,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>隐层维度为64时的训练效率</c:v>
+            <c:v>隐层维度为64时的训练速度</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -410,7 +410,7 @@
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:rPr>
-                  <a:t>our GAT的hop值</a:t>
+                  <a:t>poly GAT的hop值</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -481,6 +481,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="670692512"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -602,6 +603,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="877878832"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
@@ -642,7 +644,7 @@
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:rPr>
-                  <a:t>训练效率（s/epoch）</a:t>
+                  <a:t>训练速度（s/epoch）</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -722,6 +724,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="670690016"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
